--- a/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
+++ b/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.96</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,20 +550,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.60</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.03</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,20 +588,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -586,20 +626,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合A</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4735</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009710</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合C</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005569</t>
+          <t>010460</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融智选红利股票A</t>
+          <t>兴业研究精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005570</t>
+          <t>762001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融智选红利股票C</t>
+          <t>国金国鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -762,25 +862,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005574</t>
+          <t>005592</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东吴悦秀纯债债券C</t>
+          <t>长安裕腾灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.09</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.31</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005580</t>
+          <t>002810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大保德信晟利债券C</t>
+          <t>金信转型创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005592</t>
+          <t>002862</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长安裕腾灵活配置混合C</t>
+          <t>金信量化精选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>74.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005591</t>
+          <t>010375</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富鑫永定期开放债券C</t>
+          <t>国金鑫悦经济新动能混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006123</t>
+          <t>006366</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中融高股息精选混合A</t>
+          <t>兴业安保优选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006124</t>
+          <t>010376</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融高股息精选混合C</t>
+          <t>国金鑫悦经济新动能混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006366</t>
+          <t>006123</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴业安保优选混合</t>
+          <t>中融高股息精选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010375</t>
+          <t>009762</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国金鑫悦经济新动能混合A</t>
+          <t>国金国鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>77.48</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010376</t>
+          <t>005580</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国金鑫悦经济新动能混合C</t>
+          <t>光大保德信晟利债券C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>77.48</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010460</t>
+          <t>005569</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>兴业研究精选混合</t>
+          <t>中融智选红利股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>006124</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>中融高股息精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>762001</t>
+          <t>005290</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国金国鑫灵活配置混合A</t>
+          <t>诺德新盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009762</t>
+          <t>005570</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国金国鑫灵活配置混合C</t>
+          <t>中融智选红利股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008638</t>
+          <t>005591</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发科技创新混合</t>
+          <t>汇添富鑫永定期开放债券C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002810</t>
+          <t>009710</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金信转型创新成长灵活配置混合</t>
+          <t>诺德新盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1182,26 +1432,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002862</t>
+          <t>005574</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金信量化精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>74.03</t>
-        </is>
-      </c>
+          <t>东吴悦秀纯债债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
+++ b/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1440,7 +1441,6 @@
           <t>东吴悦秀纯债债券C</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>93.09</t>
@@ -1456,6 +1456,480 @@
       </c>
       <c r="H21" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
+++ b/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1935,4 +1936,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
+++ b/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2068,4 +2069,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
+++ b/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2077,7 +2078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2088,17 +2089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2108,14 +2129,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -2124,14 +2219,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.59</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -2140,14 +2235,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2.08</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="5">
@@ -2156,13 +2251,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
+++ b/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2172,7 +2173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2183,17 +2184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2203,14 +2224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2219,14 +2262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8791</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2235,14 +2300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.59</v>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6996</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2251,14 +2338,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.08</v>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2267,13 +2376,1953 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3924</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001635</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001636</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004011</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
+++ b/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4205,7 +4206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4216,17 +4217,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4236,14 +4257,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.48</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4252,14 +4295,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4268,14 +4333,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4284,14 +4371,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.59</v>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3353</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4300,14 +4409,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.08</v>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4316,13 +4447,1019 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
+++ b/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>5.25</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>8.48</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3.59</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>2.08</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -600,6 +617,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>294.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1871</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8404</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河定投宝腾讯济安指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1719,7 +2628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3751,7 +4660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3845,7 +4754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3977,7 +4886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4451,7 +5360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5260,7 +6169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
+++ b/数据整理/stocks/A股/上证主板/601717-郑煤机.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>11.43</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>5.25</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>8.48</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3.59</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>2.08</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,238 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +842,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1508,7 +2169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2628,7 +3289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4660,7 +5321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4754,7 +5415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4886,7 +5547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5360,7 +6021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6167,212 +6828,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7061</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519918</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏兴和混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6962</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004790</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>